--- a/export/inputDSSP.xlsx
+++ b/export/inputDSSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAN NHUAN\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\JAVA_SGU_24-25\export\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89278C9F-2010-4CB9-AFCE-685829610A6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1C97FE-49EB-418A-A079-30E897BC60FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="14784" windowHeight="9624" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="31">
   <si>
     <t>Mã SP</t>
   </si>
@@ -69,13 +69,55 @@
     <t>Đôi</t>
   </si>
   <si>
-    <t>Đỏ</t>
-  </si>
-  <si>
-    <t>Da</t>
-  </si>
-  <si>
-    <t>Cao</t>
+    <t>Vải lưới</t>
+  </si>
+  <si>
+    <t>Sneaker</t>
+  </si>
+  <si>
+    <t>SP021</t>
+  </si>
+  <si>
+    <t>Reeborn</t>
+  </si>
+  <si>
+    <t>Trắng</t>
+  </si>
+  <si>
+    <t>Đen</t>
+  </si>
+  <si>
+    <t>Da tổng hợp</t>
+  </si>
+  <si>
+    <t>SP022</t>
+  </si>
+  <si>
+    <t>Charles Keith</t>
+  </si>
+  <si>
+    <t>Giày cao gót</t>
+  </si>
+  <si>
+    <t>Da thật</t>
+  </si>
+  <si>
+    <t>Giày sang trọng</t>
+  </si>
+  <si>
+    <t>SP023</t>
+  </si>
+  <si>
+    <t>Bata Loafer</t>
+  </si>
+  <si>
+    <t>Giày tây</t>
+  </si>
+  <si>
+    <t>Xám</t>
+  </si>
+  <si>
+    <t>Giày lịch lãm</t>
   </si>
 </sst>
 </file>
@@ -393,17 +435,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" activeCellId="1" sqref="J2 H15"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" customWidth="1"/>
+    <col min="10" max="10" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -446,28 +491,124 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D2">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="E2">
-        <v>100000</v>
+        <v>2000000</v>
       </c>
       <c r="F2" t="s">
         <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2">
+        <v>38</v>
+      </c>
+      <c r="I2" t="s">
         <v>14</v>
       </c>
-      <c r="H2">
-        <v>36</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>1800000</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4">
+        <v>2500000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>1700000</v>
+      </c>
+      <c r="F5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
